--- a/PLDI-2012/Final_Performance_Evaluation.xlsx
+++ b/PLDI-2012/Final_Performance_Evaluation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="330" windowWidth="20835" windowHeight="9750"/>
+    <workbookView xWindow="480" yWindow="390" windowWidth="20835" windowHeight="9690"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>Benchmark:</t>
   </si>
@@ -223,6 +223,9 @@
   </si>
   <si>
     <t>Z-Scores Computation:</t>
+  </si>
+  <si>
+    <t>9620040303160820</t>
   </si>
 </sst>
 </file>
@@ -258,9 +261,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -565,12 +569,12 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1438,8 +1442,8 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>9620040303160820</v>
+      <c r="A28" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="B28">
         <v>42</v>
